--- a/Lab/PBI-Sicurezza/DynamicRLS.xlsx
+++ b/Lab/PBI-Sicurezza/DynamicRLS.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Marco\Corsi\2020 - MOC 20778C - Corso Power BI\6 GIORNATA (3 ore)\PBI-Sicurezza\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sviluppo\moc20778s - Copia\Lab\PBI-Sicurezza\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB7A79E2-B9C3-4F76-B379-57F623A8BCE5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D5A3921-F467-4623-AE09-BF172A2595DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="114">
   <si>
     <t>User</t>
   </si>
@@ -934,8 +934,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1080,7 +1080,9 @@
       <c r="C12" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D12" s="5"/>
+      <c r="D12" s="5" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
@@ -1268,7 +1270,7 @@
       <c r="C29" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D29" s="5" t="s">
         <v>110</v>
       </c>
     </row>
@@ -1556,10 +1558,12 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D39" r:id="rId1" xr:uid="{F8D565FB-BA68-4FCA-BFDA-B1C48A80CE59}"/>
+    <hyperlink ref="D29" r:id="rId2" xr:uid="{D015C4FC-7661-486C-AAA4-1F3F72DBCACC}"/>
+    <hyperlink ref="D12" r:id="rId3" xr:uid="{3AA328CB-E73B-4CA7-B035-9C98F87B83E8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
 </file>

--- a/Lab/PBI-Sicurezza/DynamicRLS.xlsx
+++ b/Lab/PBI-Sicurezza/DynamicRLS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sviluppo\moc20778s - Copia\Lab\PBI-Sicurezza\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sviluppo\moc20778s\Lab\PBI-Sicurezza\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D5A3921-F467-4623-AE09-BF172A2595DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC2F2E9F-68D7-443F-AF78-221CB92E6ADA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Users Table" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="115">
   <si>
     <t>User</t>
   </si>
@@ -368,6 +368,9 @@
   </si>
   <si>
     <t>demouser1</t>
+  </si>
+  <si>
+    <t>istruttore@marcopozzan.it</t>
   </si>
 </sst>
 </file>
@@ -935,7 +938,7 @@
   <dimension ref="A1:D51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -990,6 +993,9 @@
       <c r="C4" s="3" t="s">
         <v>1</v>
       </c>
+      <c r="D4" s="5" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
@@ -1270,9 +1276,7 @@
       <c r="C29" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D29" s="5" t="s">
-        <v>110</v>
-      </c>
+      <c r="D29" s="5"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
@@ -1383,9 +1387,7 @@
       <c r="C39" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D39" s="5" t="s">
-        <v>112</v>
-      </c>
+      <c r="D39" s="5"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
@@ -1397,9 +1399,6 @@
       <c r="C40" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D40" t="s">
-        <v>112</v>
-      </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
@@ -1411,9 +1410,6 @@
       <c r="C41" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D41" t="s">
-        <v>112</v>
-      </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
@@ -1425,9 +1421,6 @@
       <c r="C42" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D42" t="s">
-        <v>112</v>
-      </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
@@ -1439,9 +1432,6 @@
       <c r="C43" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D43" t="s">
-        <v>112</v>
-      </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
@@ -1453,9 +1443,6 @@
       <c r="C44" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D44" t="s">
-        <v>112</v>
-      </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
@@ -1467,9 +1454,6 @@
       <c r="C45" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D45" t="s">
-        <v>112</v>
-      </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
@@ -1481,9 +1465,6 @@
       <c r="C46" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D46" t="s">
-        <v>112</v>
-      </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
@@ -1495,9 +1476,6 @@
       <c r="C47" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D47" t="s">
-        <v>112</v>
-      </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
@@ -1509,11 +1487,8 @@
       <c r="C48" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D48" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>104</v>
       </c>
@@ -1523,11 +1498,8 @@
       <c r="C49" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D49" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>106</v>
       </c>
@@ -1537,11 +1509,8 @@
       <c r="C50" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D50" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>108</v>
       </c>
@@ -1551,19 +1520,15 @@
       <c r="C51" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D51" t="s">
-        <v>112</v>
-      </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D39" r:id="rId1" xr:uid="{F8D565FB-BA68-4FCA-BFDA-B1C48A80CE59}"/>
-    <hyperlink ref="D29" r:id="rId2" xr:uid="{D015C4FC-7661-486C-AAA4-1F3F72DBCACC}"/>
-    <hyperlink ref="D12" r:id="rId3" xr:uid="{3AA328CB-E73B-4CA7-B035-9C98F87B83E8}"/>
+    <hyperlink ref="D12" r:id="rId1" xr:uid="{3AA328CB-E73B-4CA7-B035-9C98F87B83E8}"/>
+    <hyperlink ref="D4" r:id="rId2" xr:uid="{FA5E9B5C-70A8-49A8-B561-1115F1743EF1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId4"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
